--- a/static/new.xlsx
+++ b/static/new.xlsx
@@ -4,7 +4,6 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="6020" sheetId="1" r:id="rId1"/>
-    <sheet name="06020" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -481,17 +480,4 @@
     <ignoredError numberStoredAsText="1" sqref="A1:G9"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
-</worksheet>
 </file>
--- a/static/new.xlsx
+++ b/static/new.xlsx
@@ -4,6 +4,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="6020" sheetId="1" r:id="rId1"/>
+    <sheet name="06020" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -480,4 +481,38 @@
     <ignoredError numberStoredAsText="1" sqref="A1:G9"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Inhoud</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Weergave</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Uitlijnen</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Regel verwijderen</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Regel template</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/static/new.xlsx
+++ b/static/new.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -402,85 +402,54 @@
       <c r="G1" t="str">
         <v>P302</v>
       </c>
-      <c r="H1" t="str">
-        <v>P368</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>Gezinssamenstelling</v>
+      </c>
+      <c r="B2">
+        <v>10694</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
         <v>Bonus/malus</v>
       </c>
-      <c r="B2" t="str">
-        <v>Trede 10046 = 10051 %</v>
-      </c>
-      <c r="H2" t="str">
-        <v>X</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3">
-        <v>10046</v>
-      </c>
-      <c r="D3" t="str">
-        <v>links</v>
-      </c>
-      <c r="E3" t="str">
-        <v>verwijderen</v>
+      <c r="B3" t="str">
+        <v>Trede 10046 = 10050 %</v>
       </c>
     </row>
     <row r="4">
       <c r="B4">
-        <v>10051</v>
+        <v>10046</v>
       </c>
       <c r="D4" t="str">
         <v>links</v>
       </c>
       <c r="E4" t="str">
+        <v>verwijderen</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5">
+        <v>10050</v>
+      </c>
+      <c r="D5" t="str">
+        <v>links</v>
+      </c>
+      <c r="E5" t="str">
         <v>niet verwijderen</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Bonus/malus</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Trede 10046 = 10050 %</v>
-      </c>
-      <c r="G6" t="str">
-        <v>X</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7">
-        <v>10046</v>
-      </c>
-      <c r="D7" t="str">
-        <v>links</v>
-      </c>
-      <c r="E7" t="str">
-        <v>verwijderen</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8">
-        <v>10050</v>
-      </c>
-      <c r="D8" t="str">
-        <v>links</v>
-      </c>
-      <c r="E8" t="str">
-        <v>niet verwijderen</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
         <v>Label</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/static/new.xlsx
+++ b/static/new.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -402,6 +402,9 @@
       <c r="G1" t="str">
         <v>P302</v>
       </c>
+      <c r="H1" t="str">
+        <v>P368</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -410,6 +413,9 @@
       <c r="B2">
         <v>10694</v>
       </c>
+      <c r="H2" t="str">
+        <v>x</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -449,7 +455,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/static/new.xlsx
+++ b/static/new.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -452,10 +452,165 @@
         <v>Label</v>
       </c>
     </row>
+    <row r="8">
+      <c r="B8" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="str">
+        <v>asd</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="str">
+        <v>asd</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H38"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/static/new.xlsx
+++ b/static/new.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -449,42 +449,90 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Label</v>
+        <v>Eigen risico</v>
+      </c>
+      <c r="B6" t="str">
+        <v>€ 10043  10044</v>
+      </c>
+      <c r="H6" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7">
+        <v>10043</v>
+      </c>
+      <c r="D7" t="str">
+        <v>rechts</v>
+      </c>
+      <c r="E7" t="str">
+        <v>verwijderen</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="str">
-        <v>asd</v>
+      <c r="B8">
+        <v>10044</v>
+      </c>
+      <c r="D8" t="str">
+        <v>links</v>
+      </c>
+      <c r="E8" t="str">
+        <v>niet verwijderen</v>
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <v>n/a</v>
+      </c>
       <c r="B9" t="str">
-        <v>asd</v>
+        <v>10631 10632 10630          10633</v>
+      </c>
+      <c r="H9" t="str">
+        <v>x</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="str">
-        <v>asd</v>
+      <c r="C10">
+        <v>10631</v>
+      </c>
+      <c r="D10" t="str">
+        <v>links</v>
+      </c>
+      <c r="E10" t="str">
+        <v>verwijderen</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="str">
-        <v>asd</v>
+      <c r="C11">
+        <v>10632</v>
+      </c>
+      <c r="D11" t="str">
+        <v>links</v>
+      </c>
+      <c r="E11" t="str">
+        <v>verwijderen</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="str">
-        <v>asd</v>
+      <c r="C12">
+        <v>10630</v>
+      </c>
+      <c r="D12" t="str">
+        <v>links</v>
+      </c>
+      <c r="E12" t="str">
+        <v>verwijderen</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="str">
-        <v>asd</v>
+      <c r="C13">
+        <v>10633</v>
+      </c>
+      <c r="D13" t="str">
+        <v>links</v>
+      </c>
+      <c r="E13" t="str">
+        <v>verwijderen</v>
       </c>
     </row>
     <row r="15">
@@ -519,98 +567,13 @@
     </row>
     <row r="21">
       <c r="B21" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="str">
         <v>asd</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H21"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/static/new.xlsx
+++ b/static/new.xlsx
@@ -402,19 +402,13 @@
       <c r="G1" t="str">
         <v>P302</v>
       </c>
-      <c r="H1" t="str">
-        <v>P368</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Gezinssamenstelling</v>
+        <v>x</v>
       </c>
       <c r="B2">
         <v>10694</v>
-      </c>
-      <c r="H2" t="str">
-        <v>x</v>
       </c>
     </row>
     <row r="3">
@@ -449,13 +443,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Eigen risico</v>
+        <v>x</v>
       </c>
       <c r="B6" t="str">
         <v>€ 10043  10044</v>
-      </c>
-      <c r="H6" t="str">
-        <v>x</v>
       </c>
     </row>
     <row r="7">
@@ -482,13 +473,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>n/a</v>
+        <v>x</v>
       </c>
       <c r="B9" t="str">
         <v>10631 10632 10630          10633</v>
-      </c>
-      <c r="H9" t="str">
-        <v>x</v>
       </c>
     </row>
     <row r="10">
@@ -533,6 +521,11 @@
       </c>
       <c r="E13" t="str">
         <v>verwijderen</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="str">
+        <v>asd</v>
       </c>
     </row>
     <row r="15">

--- a/static/new.xlsx
+++ b/static/new.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -405,10 +405,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>x</v>
+        <v>Gezinssamenstelling</v>
       </c>
       <c r="B2">
         <v>10694</v>
+      </c>
+      <c r="H2" t="str">
+        <v>x</v>
       </c>
     </row>
     <row r="3">
@@ -443,10 +446,13 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>x</v>
+        <v>Eigen risico</v>
       </c>
       <c r="B6" t="str">
         <v>€ 10043  10044</v>
+      </c>
+      <c r="H6" t="str">
+        <v>x</v>
       </c>
     </row>
     <row r="7">
@@ -473,10 +479,13 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>x</v>
+        <v>n/a</v>
       </c>
       <c r="B9" t="str">
         <v>10631 10632 10630          10633</v>
+      </c>
+      <c r="H9" t="str">
+        <v>x</v>
       </c>
     </row>
     <row r="10">
@@ -523,50 +532,10 @@
         <v>verwijderen</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="str">
-        <v>asd</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="str">
-        <v>asd</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/static/new.xlsx
+++ b/static/new.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="06020" sheetId="1" r:id="rId1"/>
+    <sheet name="06020b" sheetId="1" r:id="rId1"/>
+    <sheet name="06020" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -375,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -410,38 +411,99 @@
       <c r="B2">
         <v>10694</v>
       </c>
-      <c r="H2" t="str">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>omschrijving</v>
+      </c>
+      <c r="B1" t="str">
+        <v>inhoud</v>
+      </c>
+      <c r="C1" t="str">
+        <v>weergave</v>
+      </c>
+      <c r="D1" t="str">
+        <v>uitlijnen</v>
+      </c>
+      <c r="E1" t="str">
+        <v>regel verwijderen</v>
+      </c>
+      <c r="F1" t="str">
+        <v>regel template</v>
+      </c>
+      <c r="G1" t="str">
+        <v>P368</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Soort verzekering</v>
+      </c>
+      <c r="B2" t="str">
+        <v>10142</v>
+      </c>
+      <c r="F2" t="str">
+        <v>02 Soort verzekering        10142</v>
+      </c>
+      <c r="G2" t="str">
         <v>x</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>Bonus/malus</v>
-      </c>
       <c r="B3" t="str">
-        <v>Trede 10046 = 10050 %</v>
+        <v>10142</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E3" t="str">
+        <v>niet verwijderen</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4">
-        <v>10046</v>
-      </c>
-      <c r="D4" t="str">
-        <v>links</v>
-      </c>
-      <c r="E4" t="str">
+      <c r="A4" t="str">
+        <v>Gezinssamenstelling</v>
+      </c>
+      <c r="B4" t="str">
+        <v>10694</v>
+      </c>
+      <c r="F4" t="str">
+        <v>03 Gezinssamenstelling      10694</v>
+      </c>
+      <c r="G4" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="str">
+        <v>10694</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E5" t="str">
         <v>verwijderen</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5">
-        <v>10050</v>
-      </c>
-      <c r="D5" t="str">
-        <v>links</v>
-      </c>
-      <c r="E5" t="str">
-        <v>niet verwijderen</v>
       </c>
     </row>
     <row r="6">
@@ -451,27 +513,36 @@
       <c r="B6" t="str">
         <v>€ 10043  10044</v>
       </c>
-      <c r="H6" t="str">
+      <c r="F6" t="str">
+        <v>04 Eigen risico             € 10043  10044</v>
+      </c>
+      <c r="G6" t="str">
         <v>x</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7">
+      <c r="B7" t="str">
         <v>10043</v>
       </c>
+      <c r="C7" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
       <c r="D7" t="str">
-        <v>rechts</v>
+        <v>Links</v>
       </c>
       <c r="E7" t="str">
         <v>verwijderen</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8">
+      <c r="B8" t="str">
         <v>10044</v>
       </c>
+      <c r="C8" t="str">
+        <v>Omschrijving</v>
+      </c>
       <c r="D8" t="str">
-        <v>links</v>
+        <v>Links</v>
       </c>
       <c r="E8" t="str">
         <v>niet verwijderen</v>
@@ -479,63 +550,310 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>n/a</v>
+        <v>Verzekerde jagers</v>
       </c>
       <c r="B9" t="str">
-        <v>10631 10632 10630          10633</v>
-      </c>
-      <c r="H9" t="str">
+        <v>Naam                    Geboortedatum     10630</v>
+      </c>
+      <c r="F9" t="str">
+        <v>06 Verzekerde jagers        Naam                    Geboortedatum     10630</v>
+      </c>
+      <c r="G9" t="str">
         <v>x</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10">
-        <v>10631</v>
+      <c r="B10" t="str">
+        <v>10630</v>
       </c>
       <c r="D10" t="str">
-        <v>links</v>
+        <v>Links</v>
       </c>
       <c r="E10" t="str">
         <v>verwijderen</v>
       </c>
     </row>
     <row r="11">
-      <c r="C11">
+      <c r="A11" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B11" t="str">
+        <v>10631 10632 10630                   10633</v>
+      </c>
+      <c r="F11" t="str">
+        <v>07                          10631 10632 10630                   10633</v>
+      </c>
+      <c r="G11" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="str">
+        <v>10631</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E12" t="str">
+        <v>niet verwijderen</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="str">
         <v>10632</v>
       </c>
-      <c r="D11" t="str">
-        <v>links</v>
-      </c>
-      <c r="E11" t="str">
+      <c r="D13" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E13" t="str">
+        <v>niet verwijderen</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="str">
+        <v>10630</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E14" t="str">
         <v>verwijderen</v>
       </c>
     </row>
-    <row r="12">
-      <c r="C12">
+    <row r="15">
+      <c r="B15" t="str">
+        <v>10633</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Datum (DD-MM-EEJJ)</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E15" t="str">
+        <v>niet verwijderen</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B16" t="str">
+        <v>10637 10638 10636                   10639</v>
+      </c>
+      <c r="F16" t="str">
+        <v>08                          10637 10638 10636                   10639</v>
+      </c>
+      <c r="G16" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="str">
+        <v>10637</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E17" t="str">
+        <v>niet verwijderen</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="str">
+        <v>10638</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E18" t="str">
+        <v>niet verwijderen</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="str">
+        <v>10636</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E19" t="str">
+        <v>verwijderen</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="str">
+        <v>10639</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Datum (DD-MM-EEJJ)</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E20" t="str">
+        <v>niet verwijderen</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B21" t="str">
+        <v>10643 10644 10642                   10645</v>
+      </c>
+      <c r="F21" t="str">
+        <v>09                          10643 10644 10642                   10645</v>
+      </c>
+      <c r="G21" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="str">
+        <v>10643</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E22" t="str">
+        <v>niet verwijderen</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="str">
+        <v>10644</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E23" t="str">
+        <v>niet verwijderen</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="str">
+        <v>10642</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E24" t="str">
+        <v>verwijderen</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="str">
+        <v>10645</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Datum (DD-MM-EEJJ)</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E25" t="str">
+        <v>niet verwijderen</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B26" t="str">
         <v>10630</v>
       </c>
-      <c r="D12" t="str">
-        <v>links</v>
-      </c>
-      <c r="E12" t="str">
+      <c r="F26" t="str">
+        <v>10                                                                    10630</v>
+      </c>
+      <c r="G26" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="str">
+        <v>10630</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E27" t="str">
         <v>verwijderen</v>
       </c>
     </row>
-    <row r="13">
-      <c r="C13">
-        <v>10633</v>
-      </c>
-      <c r="D13" t="str">
-        <v>links</v>
-      </c>
-      <c r="E13" t="str">
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Dekkingsgebied jager</v>
+      </c>
+      <c r="B28" t="str">
+        <v>10246</v>
+      </c>
+      <c r="F28" t="str">
+        <v>11 Dekkingsgebied jager     10246</v>
+      </c>
+      <c r="G28" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="str">
+        <v>10246</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E29" t="str">
         <v>verwijderen</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B30" t="str">
+        <v>10246</v>
+      </c>
+      <c r="F30" t="str">
+        <v>12                                                                    10246</v>
+      </c>
+      <c r="G30" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="str">
+        <v>10246</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E31" t="str">
+        <v>verwijderen</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Verzekerde rubrieken</v>
+      </c>
+      <c r="B32" t="str">
+        <v xml:space="preserve">                        Verzekerd bedrag</v>
+      </c>
+      <c r="F32" t="str">
+        <v>13 Verzekerde rubrieken                             Verzekerd bedrag</v>
+      </c>
+      <c r="G32" t="str">
+        <v>x</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G32"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/static/new.xlsx
+++ b/static/new.xlsx
@@ -1,93 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeltedirks/WebstormProjects/bodyblock-conversion/static/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B539E751-CC06-F241-A7FE-8D545E3FAB39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="27060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="06020b" sheetId="1" r:id="rId1"/>
     <sheet name="06020" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
-  <si>
-    <t>omschrijving</t>
-  </si>
-  <si>
-    <t>inhoud</t>
-  </si>
-  <si>
-    <t>weergave</t>
-  </si>
-  <si>
-    <t>uitlijnen</t>
-  </si>
-  <si>
-    <t>regel verwijderen</t>
-  </si>
-  <si>
-    <t>regel template</t>
-  </si>
-  <si>
-    <t>P302</t>
-  </si>
-  <si>
-    <t>Gezinssamenstelling</t>
-  </si>
-  <si>
-    <t>P368</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>99042srisico                                  € 10039</t>
-  </si>
-  <si>
-    <t>01                       - 99042srisico                                  € 10039</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>99042</t>
-  </si>
-  <si>
-    <t>Omschrijving</t>
-  </si>
-  <si>
-    <t>Links</t>
-  </si>
-  <si>
-    <t>niet verwijderen</t>
-  </si>
-  <si>
-    <t>10039</t>
-  </si>
-  <si>
-    <t>Getal inclusief decimalen</t>
-  </si>
-  <si>
-    <t>Rechts</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,18 +47,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -456,39 +375,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>omschrijving</v>
+      </c>
+      <c r="B1" t="str">
+        <v>inhoud</v>
+      </c>
+      <c r="C1" t="str">
+        <v>weergave</v>
+      </c>
+      <c r="D1" t="str">
+        <v>uitlijnen</v>
+      </c>
+      <c r="E1" t="str">
+        <v>regel verwijderen</v>
+      </c>
+      <c r="F1" t="str">
+        <v>regel template</v>
+      </c>
+      <c r="G1" t="str">
+        <v>P302</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Gezinssamenstelling</v>
       </c>
       <c r="B2">
         <v>10694</v>
@@ -497,99 +415,86 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G2" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.1640625" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>omschrijving</v>
+      </c>
+      <c r="B1" t="str">
+        <v>inhoud</v>
+      </c>
+      <c r="C1" t="str">
+        <v>weergave</v>
+      </c>
+      <c r="D1" t="str">
+        <v>uitlijnen</v>
+      </c>
+      <c r="E1" t="str">
+        <v>regel verwijderen</v>
+      </c>
+      <c r="F1" t="str">
+        <v>regel template</v>
+      </c>
+      <c r="G1" t="str">
+        <v>P368</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>-</v>
+      </c>
+      <c r="B2" t="str">
+        <v>99042srisico                                  € 10039</v>
+      </c>
+      <c r="F2" t="str">
+        <v>01                       - 99042srisico                                  € 10039</v>
+      </c>
+      <c r="G2" t="str">
+        <v>x</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
+    <row r="3">
+      <c r="B3" t="str">
+        <v>99042</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E3" t="str">
+        <v>niet verwijderen</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
+    <row r="4">
+      <c r="B4" t="str">
+        <v>10039</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Rechts</v>
+      </c>
+      <c r="E4" t="str">
+        <v>niet verwijderen</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G4" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/static/new.xlsx
+++ b/static/new.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="06020b" sheetId="1" r:id="rId1"/>
+    <sheet name="blad1" sheetId="1" r:id="rId1"/>
     <sheet name="06020" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
@@ -376,7 +376,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -406,59 +420,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Gezinssamenstelling</v>
-      </c>
-      <c r="B2">
-        <v>10694</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>omschrijving</v>
-      </c>
-      <c r="B1" t="str">
-        <v>inhoud</v>
-      </c>
-      <c r="C1" t="str">
-        <v>weergave</v>
-      </c>
-      <c r="D1" t="str">
-        <v>uitlijnen</v>
-      </c>
-      <c r="E1" t="str">
-        <v>regel verwijderen</v>
-      </c>
-      <c r="F1" t="str">
-        <v>regel template</v>
-      </c>
-      <c r="G1" t="str">
-        <v>P368</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>-</v>
+        <v>Soort verzekering</v>
       </c>
       <c r="B2" t="str">
-        <v>99042srisico                                  € 10039</v>
+        <v>10142</v>
       </c>
       <c r="F2" t="str">
-        <v>01                       - 99042srisico                                  € 10039</v>
+        <v>02 Soort verzekering          10142</v>
       </c>
       <c r="G2" t="str">
         <v>x</v>
@@ -466,7 +434,7 @@
     </row>
     <row r="3">
       <c r="B3" t="str">
-        <v>99042</v>
+        <v>10142</v>
       </c>
       <c r="C3" t="str">
         <v>Omschrijving</v>
@@ -479,22 +447,156 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <v>Gezinssamenstelling</v>
+      </c>
       <c r="B4" t="str">
-        <v>10039</v>
-      </c>
-      <c r="C4" t="str">
+        <v>10694</v>
+      </c>
+      <c r="F4" t="str">
+        <v>03 Gezinssamenstelling        10694</v>
+      </c>
+      <c r="G4" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="str">
+        <v>10694</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E5" t="str">
+        <v>verwijderen</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Meeverzekerd sterdekking</v>
+      </c>
+      <c r="B6" t="str">
+        <v>11500</v>
+      </c>
+      <c r="F6" t="str">
+        <v>04 Meeverzekerd sterdekking   11500</v>
+      </c>
+      <c r="G6" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="str">
+        <v>11500</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E7" t="str">
+        <v>verwijderen</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Meeverzekerd verhaalsbijstand</v>
+      </c>
+      <c r="B8" t="str">
+        <v>11646</v>
+      </c>
+      <c r="F8" t="str">
+        <v>05 Meeverzekerd verhaalsbijstand 11646</v>
+      </c>
+      <c r="G8" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="str">
+        <v>11646</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E9" t="str">
+        <v>verwijderen</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Eigen risico</v>
+      </c>
+      <c r="B10" t="str">
+        <v>€ 10043</v>
+      </c>
+      <c r="F10" t="str">
+        <v>06 Eigen risico               € 10043</v>
+      </c>
+      <c r="G10" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="str">
+        <v>10043</v>
+      </c>
+      <c r="C11" t="str">
         <v>Getal inclusief decimalen</v>
       </c>
-      <c r="D4" t="str">
-        <v>Rechts</v>
-      </c>
-      <c r="E4" t="str">
-        <v>niet verwijderen</v>
+      <c r="D11" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E11" t="str">
+        <v>verwijderen</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Eigen risico kinderen/huisdieren</v>
+      </c>
+      <c r="B12" t="str">
+        <v>€ 11450</v>
+      </c>
+      <c r="F12" t="str">
+        <v>07 Eigen risico kinderen/huisdieren€ 11450</v>
+      </c>
+      <c r="G12" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="str">
+        <v>11450</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Getal inclusief decimalen</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E13" t="str">
+        <v>verwijderen</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Verzekerde rubrieken</v>
+      </c>
+      <c r="B14" t="str">
+        <v xml:space="preserve">                        Verzekerd bedrag</v>
+      </c>
+      <c r="F14" t="str">
+        <v>09 Verzekerde rubrieken                             Verzekerd bedrag</v>
+      </c>
+      <c r="G14" t="str">
+        <v>x</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G14"/>
   </ignoredErrors>
 </worksheet>
 </file>